--- a/artfynd/A 44892-2021.xlsx
+++ b/artfynd/A 44892-2021.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>5928374</v>
+        <v>4813290</v>
       </c>
       <c r="B2" t="n">
-        <v>96251</v>
+        <v>101679</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,34 +696,34 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>223591</v>
+        <v>222412</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Skogsnycklar</t>
+          <t>Tibast</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Dactylorhiza maculata subsp. fuchsii</t>
+          <t>Daphne mezereum</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Druce) Hyl.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
-          <t>mångberget, Vb</t>
+          <t>blodlodmyran, Vb</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>755770.0586525596</v>
+        <v>756337.7002295235</v>
       </c>
       <c r="R2" t="n">
-        <v>7212901.213336065</v>
+        <v>7213559.490042973</v>
       </c>
       <c r="S2" t="n">
         <v>50</v>
@@ -792,10 +792,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>5994425</v>
+        <v>5928374</v>
       </c>
       <c r="B3" t="n">
-        <v>96336</v>
+        <v>96251</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -808,19 +808,23 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>223614</v>
+        <v>223591</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Vanlig brudsporre</t>
+          <t>Skogsnycklar</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Gymnadenia conopsea subsp. conopsea</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr"/>
+          <t>Dactylorhiza maculata subsp. fuchsii</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>(Druce) Hyl.</t>
+        </is>
+      </c>
       <c r="I3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
@@ -900,10 +904,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>106228630</v>
+        <v>5994425</v>
       </c>
       <c r="B4" t="n">
-        <v>78596</v>
+        <v>96336</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -916,44 +920,33 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>6462</v>
+        <v>223614</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Vanlig brudsporre</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>(Spreng.) Tuck.</t>
-        </is>
-      </c>
+          <t>Gymnadenia conopsea subsp. conopsea</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>bålar</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr"/>
-      <c r="N4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
-          <t>Nordost Stor-Mullbergsmyran, Vb</t>
+          <t>mångberget, Vb</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>755328.5477977782</v>
+        <v>755770.0586525596</v>
       </c>
       <c r="R4" t="n">
-        <v>7212410.526480958</v>
+        <v>7212901.213336065</v>
       </c>
       <c r="S4" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="T4" t="inlineStr">
         <is>
@@ -977,7 +970,7 @@
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>2019-08-28</t>
+          <t>2009-08-24</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
@@ -987,7 +980,7 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2019-08-28</t>
+          <t>2009-08-24</t>
         </is>
       </c>
       <c r="AB4" t="inlineStr">
@@ -1001,29 +994,28 @@
       <c r="AE4" t="b">
         <v>0</v>
       </c>
-      <c r="AF4" t="inlineStr"/>
       <c r="AG4" t="b">
         <v>0</v>
       </c>
       <c r="AT4" t="inlineStr"/>
       <c r="AW4" t="inlineStr">
         <is>
-          <t>Patrik Nygren</t>
+          <t>Stig Holmqvist</t>
         </is>
       </c>
       <c r="AX4" t="inlineStr">
         <is>
-          <t>Patrik Nygren</t>
+          <t>Stig Holmqvist</t>
         </is>
       </c>
       <c r="AY4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>106228626</v>
+        <v>4895935</v>
       </c>
       <c r="B5" t="n">
-        <v>78569</v>
+        <v>97307</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1032,48 +1024,41 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>6458</v>
+        <v>222467</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Gräsull</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Eriophorum latifolium</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>Hoppe</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>bålar</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr"/>
-      <c r="N5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
-          <t>Nordost Stor-Mullbergsmyran, Vb</t>
+          <t>mångberget, Vb</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>755328.5477977782</v>
+        <v>755950.752238915</v>
       </c>
       <c r="R5" t="n">
-        <v>7212410.526480958</v>
+        <v>7213026.630356579</v>
       </c>
       <c r="S5" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="T5" t="inlineStr">
         <is>
@@ -1097,7 +1082,7 @@
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>2019-08-28</t>
+          <t>2009-08-24</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
@@ -1107,7 +1092,7 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2019-08-28</t>
+          <t>2009-08-24</t>
         </is>
       </c>
       <c r="AB5" t="inlineStr">
@@ -1121,26 +1106,25 @@
       <c r="AE5" t="b">
         <v>0</v>
       </c>
-      <c r="AF5" t="inlineStr"/>
       <c r="AG5" t="b">
         <v>0</v>
       </c>
       <c r="AT5" t="inlineStr"/>
       <c r="AW5" t="inlineStr">
         <is>
-          <t>Patrik Nygren</t>
+          <t>Stig Holmqvist</t>
         </is>
       </c>
       <c r="AX5" t="inlineStr">
         <is>
-          <t>Patrik Nygren</t>
+          <t>Stig Holmqvist</t>
         </is>
       </c>
       <c r="AY5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>4813290</v>
+        <v>4813306</v>
       </c>
       <c r="B6" t="n">
         <v>101679</v>
@@ -1176,14 +1160,14 @@
       <c r="I6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
-          <t>blodlodmyran, Vb</t>
+          <t>mångberget, Vb</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>756337.7002295235</v>
+        <v>755950.752238915</v>
       </c>
       <c r="R6" t="n">
-        <v>7213559.490042973</v>
+        <v>7213026.630356579</v>
       </c>
       <c r="S6" t="n">
         <v>50</v>
@@ -1252,10 +1236,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>4895935</v>
+        <v>96512784</v>
       </c>
       <c r="B7" t="n">
-        <v>97307</v>
+        <v>78569</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1264,41 +1248,48 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>222467</v>
+        <v>6458</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Gräsull</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Eriophorum latifolium</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Hoppe</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>bålar</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr"/>
+      <c r="N7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
         <is>
-          <t>mångberget, Vb</t>
+          <t>Holmtjärnmyran-Skorvtjärnen, Vb</t>
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>755950.752238915</v>
+        <v>755977.0521592578</v>
       </c>
       <c r="R7" t="n">
-        <v>7213026.630356579</v>
+        <v>7213062.964819293</v>
       </c>
       <c r="S7" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="T7" t="inlineStr">
         <is>
@@ -1322,7 +1313,7 @@
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>2009-08-24</t>
+          <t>2019-07-16</t>
         </is>
       </c>
       <c r="Z7" t="inlineStr">
@@ -1332,7 +1323,7 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2009-08-24</t>
+          <t>2019-07-16</t>
         </is>
       </c>
       <c r="AB7" t="inlineStr">
@@ -1346,28 +1337,29 @@
       <c r="AE7" t="b">
         <v>0</v>
       </c>
+      <c r="AF7" t="inlineStr"/>
       <c r="AG7" t="b">
         <v>0</v>
       </c>
       <c r="AT7" t="inlineStr"/>
       <c r="AW7" t="inlineStr">
         <is>
-          <t>Stig Holmqvist</t>
+          <t>Patrik Nygren</t>
         </is>
       </c>
       <c r="AX7" t="inlineStr">
         <is>
-          <t>Stig Holmqvist</t>
+          <t>Patrik Nygren</t>
         </is>
       </c>
       <c r="AY7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>4813306</v>
+        <v>96512766</v>
       </c>
       <c r="B8" t="n">
-        <v>101679</v>
+        <v>78569</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1376,41 +1368,48 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>222412</v>
+        <v>6458</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Tibast</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Daphne mezereum</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>bålar</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr"/>
+      <c r="N8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
-          <t>mångberget, Vb</t>
+          <t>Holmtjärnmyran-Skorvtjärnen, Vb</t>
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>755950.752238915</v>
+        <v>756009.7579397403</v>
       </c>
       <c r="R8" t="n">
-        <v>7213026.630356579</v>
+        <v>7213188.438059381</v>
       </c>
       <c r="S8" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="T8" t="inlineStr">
         <is>
@@ -1434,7 +1433,7 @@
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>2009-08-24</t>
+          <t>2019-07-16</t>
         </is>
       </c>
       <c r="Z8" t="inlineStr">
@@ -1444,7 +1443,7 @@
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>2009-08-24</t>
+          <t>2019-07-16</t>
         </is>
       </c>
       <c r="AB8" t="inlineStr">
@@ -1458,28 +1457,29 @@
       <c r="AE8" t="b">
         <v>0</v>
       </c>
+      <c r="AF8" t="inlineStr"/>
       <c r="AG8" t="b">
         <v>0</v>
       </c>
       <c r="AT8" t="inlineStr"/>
       <c r="AW8" t="inlineStr">
         <is>
-          <t>Stig Holmqvist</t>
+          <t>Patrik Nygren</t>
         </is>
       </c>
       <c r="AX8" t="inlineStr">
         <is>
-          <t>Stig Holmqvist</t>
+          <t>Patrik Nygren</t>
         </is>
       </c>
       <c r="AY8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>96512784</v>
+        <v>96521565</v>
       </c>
       <c r="B9" t="n">
-        <v>78569</v>
+        <v>77506</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1492,21 +1492,21 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>6458</v>
+        <v>6425</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1523,10 +1523,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>755977.0521592578</v>
+        <v>755836.0559333225</v>
       </c>
       <c r="R9" t="n">
-        <v>7213062.964819293</v>
+        <v>7212837.881711323</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1553,7 +1553,7 @@
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>2019-07-16</t>
+          <t>2019-08-21</t>
         </is>
       </c>
       <c r="Z9" t="inlineStr">
@@ -1563,7 +1563,7 @@
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>2019-07-16</t>
+          <t>2019-08-21</t>
         </is>
       </c>
       <c r="AB9" t="inlineStr">
@@ -1596,60 +1596,67 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>96512766</v>
+        <v>107403242</v>
       </c>
       <c r="B10" t="n">
-        <v>78569</v>
+        <v>96239</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Ovaliderad</t>
+          <t>Godkänd baserat på observatörens uppgifter</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>6458</v>
+        <v>504</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Guckusko</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Cypripedium calceolus</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr"/>
+          <t>L.</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>bålar</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr"/>
-      <c r="N10" t="inlineStr"/>
+          <t>stjälkar/strån/skott</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>blomning</t>
+        </is>
+      </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>Holmtjärnmyran-Skorvtjärnen, Vb</t>
+          <t>Holmtjärnmyran, O om, Vb</t>
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>756009.7579397403</v>
+        <v>755932.4026056591</v>
       </c>
       <c r="R10" t="n">
-        <v>7213188.438059381</v>
+        <v>7212957.331096755</v>
       </c>
       <c r="S10" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T10" t="inlineStr">
         <is>
@@ -1671,9 +1678,14 @@
           <t>Jörn</t>
         </is>
       </c>
+      <c r="X10" t="inlineStr">
+        <is>
+          <t>AC-Ske-0068</t>
+        </is>
+      </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>2019-07-16</t>
+          <t>2015-06-23</t>
         </is>
       </c>
       <c r="Z10" t="inlineStr">
@@ -1683,7 +1695,7 @@
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>2019-07-16</t>
+          <t>2015-06-23</t>
         </is>
       </c>
       <c r="AB10" t="inlineStr">
@@ -1697,29 +1709,32 @@
       <c r="AE10" t="b">
         <v>0</v>
       </c>
-      <c r="AF10" t="inlineStr"/>
       <c r="AG10" t="b">
         <v>0</v>
       </c>
       <c r="AT10" t="inlineStr"/>
       <c r="AW10" t="inlineStr">
         <is>
-          <t>Patrik Nygren</t>
+          <t>Sofia Lund</t>
         </is>
       </c>
       <c r="AX10" t="inlineStr">
         <is>
-          <t>Patrik Nygren</t>
-        </is>
-      </c>
-      <c r="AY10" t="inlineStr"/>
+          <t>Henrik Sporrong</t>
+        </is>
+      </c>
+      <c r="AY10" t="inlineStr">
+        <is>
+          <t>Floraväkteri Sverige</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>96521565</v>
+        <v>107403240</v>
       </c>
       <c r="B11" t="n">
-        <v>77506</v>
+        <v>96239</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1728,48 +1743,50 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>6425</v>
+        <v>504</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Guckusko</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Cypripedium calceolus</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr"/>
+          <t>L.</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>bålar</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr"/>
-      <c r="N11" t="inlineStr"/>
+          <t>stjälkar/strån/skott</t>
+        </is>
+      </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>Holmtjärnmyran-Skorvtjärnen, Vb</t>
+          <t>Nybäck 1:4, slänt, Vb</t>
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>755836.0559333225</v>
+        <v>756100.0431213988</v>
       </c>
       <c r="R11" t="n">
-        <v>7212837.881711323</v>
+        <v>7213229.423491716</v>
       </c>
       <c r="S11" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="T11" t="inlineStr">
         <is>
@@ -1791,9 +1808,14 @@
           <t>Jörn</t>
         </is>
       </c>
+      <c r="X11" t="inlineStr">
+        <is>
+          <t>AC-Ske-0069</t>
+        </is>
+      </c>
       <c r="Y11" t="inlineStr">
         <is>
-          <t>2019-08-21</t>
+          <t>2015-06-23</t>
         </is>
       </c>
       <c r="Z11" t="inlineStr">
@@ -1803,7 +1825,7 @@
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>2019-08-21</t>
+          <t>2015-06-23</t>
         </is>
       </c>
       <c r="AB11" t="inlineStr">
@@ -1817,33 +1839,36 @@
       <c r="AE11" t="b">
         <v>0</v>
       </c>
-      <c r="AF11" t="inlineStr"/>
       <c r="AG11" t="b">
         <v>0</v>
       </c>
       <c r="AT11" t="inlineStr"/>
       <c r="AW11" t="inlineStr">
         <is>
-          <t>Patrik Nygren</t>
+          <t>Sofia Lund</t>
         </is>
       </c>
       <c r="AX11" t="inlineStr">
         <is>
-          <t>Patrik Nygren</t>
-        </is>
-      </c>
-      <c r="AY11" t="inlineStr"/>
+          <t>Henrik Sporrong</t>
+        </is>
+      </c>
+      <c r="AY11" t="inlineStr">
+        <is>
+          <t>Floraväkteri Sverige</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>107403242</v>
+        <v>6771397</v>
       </c>
       <c r="B12" t="n">
         <v>96239</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Godkänd baserat på observatörens uppgifter</t>
+          <t>Ovaliderad</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -1869,34 +1894,20 @@
           <t>L.</t>
         </is>
       </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>stjälkar/strån/skott</t>
-        </is>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>blomning</t>
-        </is>
-      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="P12" t="inlineStr">
         <is>
-          <t>Holmtjärnmyran, O om, Vb</t>
+          <t>mångberget, Vb</t>
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>755932.4026056591</v>
+        <v>755950.752238915</v>
       </c>
       <c r="R12" t="n">
-        <v>7212957.331096755</v>
+        <v>7213026.630356579</v>
       </c>
       <c r="S12" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="T12" t="inlineStr">
         <is>
@@ -1918,14 +1929,9 @@
           <t>Jörn</t>
         </is>
       </c>
-      <c r="X12" t="inlineStr">
-        <is>
-          <t>AC-Ske-0068</t>
-        </is>
-      </c>
       <c r="Y12" t="inlineStr">
         <is>
-          <t>2015-06-23</t>
+          <t>2009-08-24</t>
         </is>
       </c>
       <c r="Z12" t="inlineStr">
@@ -1935,7 +1941,7 @@
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>2015-06-23</t>
+          <t>2009-08-24</t>
         </is>
       </c>
       <c r="AB12" t="inlineStr">
@@ -1955,30 +1961,26 @@
       <c r="AT12" t="inlineStr"/>
       <c r="AW12" t="inlineStr">
         <is>
-          <t>Sofia Lund</t>
+          <t>Stig Holmqvist</t>
         </is>
       </c>
       <c r="AX12" t="inlineStr">
         <is>
-          <t>Henrik Sporrong</t>
-        </is>
-      </c>
-      <c r="AY12" t="inlineStr">
-        <is>
-          <t>Floraväkteri Sverige</t>
-        </is>
-      </c>
+          <t>Stig Holmqvist</t>
+        </is>
+      </c>
+      <c r="AY12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>107403240</v>
+        <v>54131972</v>
       </c>
       <c r="B13" t="n">
         <v>96239</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Ovaliderad</t>
+          <t>Godkänd baserat på observatörens uppgifter</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -2006,27 +2008,33 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>30</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>stjälkar/strån/skott</t>
-        </is>
-      </c>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>blomning</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr"/>
       <c r="P13" t="inlineStr">
         <is>
-          <t>Nybäck 1:4, slänt, Vb</t>
+          <t>Ö Holmtjärnmyran, Vb</t>
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>756100.0431213988</v>
+        <v>755932.8622654119</v>
       </c>
       <c r="R13" t="n">
-        <v>7213229.423491716</v>
+        <v>7212956.944681674</v>
       </c>
       <c r="S13" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="T13" t="inlineStr">
         <is>
@@ -2046,11 +2054,6 @@
       <c r="W13" t="inlineStr">
         <is>
           <t>Jörn</t>
-        </is>
-      </c>
-      <c r="X13" t="inlineStr">
-        <is>
-          <t>AC-Ske-0069</t>
         </is>
       </c>
       <c r="Y13" t="inlineStr">
@@ -2085,7 +2088,7 @@
       <c r="AT13" t="inlineStr"/>
       <c r="AW13" t="inlineStr">
         <is>
-          <t>Sofia Lund</t>
+          <t>Henrik Sporrong</t>
         </is>
       </c>
       <c r="AX13" t="inlineStr">
@@ -2093,15 +2096,11 @@
           <t>Henrik Sporrong</t>
         </is>
       </c>
-      <c r="AY13" t="inlineStr">
-        <is>
-          <t>Floraväkteri Sverige</t>
-        </is>
-      </c>
+      <c r="AY13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>6771397</v>
+        <v>54138124</v>
       </c>
       <c r="B14" t="n">
         <v>96239</v>
@@ -2134,20 +2133,31 @@
           <t>L.</t>
         </is>
       </c>
-      <c r="I14" t="inlineStr"/>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
       <c r="P14" t="inlineStr">
         <is>
-          <t>mångberget, Vb</t>
+          <t>Slänt Nybäck 1:4, Vb</t>
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>755950.752238915</v>
+        <v>756100.0067520952</v>
       </c>
       <c r="R14" t="n">
-        <v>7213026.630356579</v>
+        <v>7213229.846257342</v>
       </c>
       <c r="S14" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="T14" t="inlineStr">
         <is>
@@ -2171,7 +2181,7 @@
       </c>
       <c r="Y14" t="inlineStr">
         <is>
-          <t>2009-08-24</t>
+          <t>2015-06-23</t>
         </is>
       </c>
       <c r="Z14" t="inlineStr">
@@ -2181,7 +2191,7 @@
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>2009-08-24</t>
+          <t>2015-06-23</t>
         </is>
       </c>
       <c r="AB14" t="inlineStr">
@@ -2201,26 +2211,26 @@
       <c r="AT14" t="inlineStr"/>
       <c r="AW14" t="inlineStr">
         <is>
-          <t>Stig Holmqvist</t>
+          <t>Henrik Sporrong</t>
         </is>
       </c>
       <c r="AX14" t="inlineStr">
         <is>
-          <t>Stig Holmqvist</t>
+          <t>Henrik Sporrong</t>
         </is>
       </c>
       <c r="AY14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>54131972</v>
+        <v>106228630</v>
       </c>
       <c r="B15" t="n">
-        <v>96239</v>
+        <v>78596</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Godkänd baserat på observatörens uppgifter</t>
+          <t>Ovaliderad</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -2229,52 +2239,44 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>504</v>
+        <v>6462</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Guckusko</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Cypripedium calceolus</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>L.</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
+          <t>(Spreng.) Tuck.</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr">
         <is>
-          <t>plantor/tuvor</t>
-        </is>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>blomning</t>
-        </is>
-      </c>
-      <c r="L15" t="inlineStr"/>
+          <t>bålar</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr"/>
+      <c r="N15" t="inlineStr"/>
       <c r="P15" t="inlineStr">
         <is>
-          <t>Ö Holmtjärnmyran, Vb</t>
+          <t>Nordost Stor-Mullbergsmyran, Vb</t>
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>755932.8622654119</v>
+        <v>755328.5477977782</v>
       </c>
       <c r="R15" t="n">
-        <v>7212956.944681674</v>
+        <v>7212410.526480958</v>
       </c>
       <c r="S15" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T15" t="inlineStr">
         <is>
@@ -2298,7 +2300,7 @@
       </c>
       <c r="Y15" t="inlineStr">
         <is>
-          <t>2015-06-23</t>
+          <t>2019-08-28</t>
         </is>
       </c>
       <c r="Z15" t="inlineStr">
@@ -2308,7 +2310,7 @@
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>2015-06-23</t>
+          <t>2019-08-28</t>
         </is>
       </c>
       <c r="AB15" t="inlineStr">
@@ -2322,28 +2324,29 @@
       <c r="AE15" t="b">
         <v>0</v>
       </c>
+      <c r="AF15" t="inlineStr"/>
       <c r="AG15" t="b">
         <v>0</v>
       </c>
       <c r="AT15" t="inlineStr"/>
       <c r="AW15" t="inlineStr">
         <is>
-          <t>Henrik Sporrong</t>
+          <t>Patrik Nygren</t>
         </is>
       </c>
       <c r="AX15" t="inlineStr">
         <is>
-          <t>Henrik Sporrong</t>
+          <t>Patrik Nygren</t>
         </is>
       </c>
       <c r="AY15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>54138124</v>
+        <v>106228626</v>
       </c>
       <c r="B16" t="n">
-        <v>96239</v>
+        <v>78569</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2352,52 +2355,48 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>504</v>
+        <v>6458</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Guckusko</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Cypripedium calceolus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>L.</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>100</t>
-        </is>
-      </c>
+          <t>(L.) Hoffm.</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr">
         <is>
-          <t>plantor/tuvor</t>
+          <t>bålar</t>
         </is>
       </c>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
+      <c r="N16" t="inlineStr"/>
       <c r="P16" t="inlineStr">
         <is>
-          <t>Slänt Nybäck 1:4, Vb</t>
+          <t>Nordost Stor-Mullbergsmyran, Vb</t>
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>756100.0067520952</v>
+        <v>755328.5477977782</v>
       </c>
       <c r="R16" t="n">
-        <v>7213229.846257342</v>
+        <v>7212410.526480958</v>
       </c>
       <c r="S16" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="T16" t="inlineStr">
         <is>
@@ -2421,7 +2420,7 @@
       </c>
       <c r="Y16" t="inlineStr">
         <is>
-          <t>2015-06-23</t>
+          <t>2019-08-28</t>
         </is>
       </c>
       <c r="Z16" t="inlineStr">
@@ -2431,7 +2430,7 @@
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>2015-06-23</t>
+          <t>2019-08-28</t>
         </is>
       </c>
       <c r="AB16" t="inlineStr">
@@ -2445,18 +2444,19 @@
       <c r="AE16" t="b">
         <v>0</v>
       </c>
+      <c r="AF16" t="inlineStr"/>
       <c r="AG16" t="b">
         <v>0</v>
       </c>
       <c r="AT16" t="inlineStr"/>
       <c r="AW16" t="inlineStr">
         <is>
-          <t>Henrik Sporrong</t>
+          <t>Patrik Nygren</t>
         </is>
       </c>
       <c r="AX16" t="inlineStr">
         <is>
-          <t>Henrik Sporrong</t>
+          <t>Patrik Nygren</t>
         </is>
       </c>
       <c r="AY16" t="inlineStr"/>
